--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/81.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/81.xlsx
@@ -479,13 +479,13 @@
         <v>-12.38603644708903</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.6919627525631</v>
+        <v>-10.69304941369897</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.984291591541695</v>
+        <v>-4.049648367327591</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.840010871984668</v>
+        <v>-6.752240073733736</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-11.78895059248594</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.05056092739798</v>
+        <v>-11.05036454285535</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.020400162779175</v>
+        <v>-4.098980164435215</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.839984687378984</v>
+        <v>-6.764599207616325</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-11.10738144088327</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.88244584996125</v>
+        <v>-11.88519523355802</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.777236822099796</v>
+        <v>-3.845840488990441</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.673463687535071</v>
+        <v>-6.597750900201369</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-10.4052029594261</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.74030590136251</v>
+        <v>-12.7338383037587</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.856772561863282</v>
+        <v>-3.944530267811372</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.023080542620524</v>
+        <v>-6.936553513139556</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-9.693155383359983</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.45983268093809</v>
+        <v>-13.44403027140813</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.612064329448581</v>
+        <v>-3.697596343913577</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.57735309237396</v>
+        <v>-6.50332921210684</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-8.992692595039699</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.15110627098123</v>
+        <v>-14.13429575413245</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.661671064915881</v>
+        <v>-3.75700921420933</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.748914628811938</v>
+        <v>-6.675990501983524</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-8.300924886539331</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.77240150233534</v>
+        <v>-14.7459681428979</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.49031900532337</v>
+        <v>-3.575314235371855</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.423793472343355</v>
+        <v>-6.373610675551018</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-7.628818162185975</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.68661082516739</v>
+        <v>-15.65820052800084</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.332268725418053</v>
+        <v>-3.421008354079272</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.193892634442645</v>
+        <v>-6.172224873239588</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-6.962312771233362</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.33845039905125</v>
+        <v>-16.30973897891934</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.318783653491075</v>
+        <v>-3.413283895402654</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.763038040224282</v>
+        <v>-5.735374004319715</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-6.300826185791751</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.88538135026435</v>
+        <v>-16.83663870678461</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.176666706144138</v>
+        <v>-3.263481766287624</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.532338571850226</v>
+        <v>-5.501519290960803</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.639457659652102</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.50581248963091</v>
+        <v>-17.46376001290329</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.305913919797658</v>
+        <v>-3.377803754701576</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.936808992488633</v>
+        <v>-4.904353173743994</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-4.967048358177751</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.39747686696951</v>
+        <v>-18.36056966525868</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.083253125368423</v>
+        <v>-3.156936605761657</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.288595986491933</v>
+        <v>-4.259832197148661</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.294722399460973</v>
       </c>
       <c r="E14" t="n">
-        <v>-19.11844379985768</v>
+        <v>-19.0966451156262</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.966181753357708</v>
+        <v>-3.040506756590187</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.741966158244187</v>
+        <v>-3.690461038864836</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-3.619776886131262</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.8900386678348</v>
+        <v>-19.85176986662844</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.890154750755805</v>
+        <v>-2.968499090960694</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.143896672131298</v>
+        <v>-3.093818613761696</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-2.950735816972398</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.75749537721905</v>
+        <v>-20.70347653569409</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.876342371257784</v>
+        <v>-2.966299584083284</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.552399522044956</v>
+        <v>-2.477878134269851</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-2.301247828177352</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.47373598878135</v>
+        <v>-21.41539668731862</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.797133939065342</v>
+        <v>-2.887038782679474</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.131403431866413</v>
+        <v>-2.057850874501595</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-1.679154467002101</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.38510428189675</v>
+        <v>-22.3202973828302</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.698810744723978</v>
+        <v>-2.793952509474802</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.896200211314804</v>
+        <v>-1.83723247931567</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-1.107531290227542</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.22919123070851</v>
+        <v>-23.16222410167308</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.716432984348942</v>
+        <v>-2.803365875218003</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.438545673179427</v>
+        <v>-1.357294841743675</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-0.6055187217803322</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.02598878165596</v>
+        <v>-23.96436331217996</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.496063342917009</v>
+        <v>-2.57927801977902</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.194649163540912</v>
+        <v>-1.127119065483289</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-0.1937675410176982</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.48169256666792</v>
+        <v>-24.4119367771272</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.338013063011692</v>
+        <v>-2.417614264289386</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.8045116311603172</v>
+        <v>-0.7364316563833417</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.1029055671583945</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.14416309045926</v>
+        <v>-25.07478697770095</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.134768153696736</v>
+        <v>-2.202795759262345</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.638200108161871</v>
+        <v>-0.6009394142743186</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.2681875421082018</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.71217264924754</v>
+        <v>-25.64525788942348</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.130604801393067</v>
+        <v>-2.197022053709143</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.2750458119380733</v>
+        <v>-0.2184085098447663</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.2911245836294086</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.15009708700044</v>
+        <v>-26.08387621922699</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.082569142266774</v>
+        <v>-2.138172152435585</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.3115864291693308</v>
+        <v>-0.2642446620936493</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.1658805247603743</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.42648869229212</v>
+        <v>-26.35956084016522</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.736042070651969</v>
+        <v>-1.78884332801265</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2884261454423174</v>
+        <v>-0.2473686837306644</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-0.1010603330085701</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.34658636804906</v>
+        <v>-26.27515476374461</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.642353551516577</v>
+        <v>-1.684576228181144</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.4476809172090733</v>
+        <v>-0.4069769476741469</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-0.4971384067300054</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.28191039201094</v>
+        <v>-26.18786838069882</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.717778308187761</v>
+        <v>-1.757277785861248</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.3955473672933201</v>
+        <v>-0.3718764837554793</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-1.0067501788269</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.43913585683723</v>
+        <v>-26.3605296705755</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.434513243904176</v>
+        <v>-1.474614967508383</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.728432259347047</v>
+        <v>-0.707982082308271</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-1.60353069646041</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.36642120685428</v>
+        <v>-26.26987856569939</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.35133784395069</v>
+        <v>-1.381437048183818</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.7972323107803175</v>
+        <v>-0.7830271621970448</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-2.264094511400466</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.17350612448145</v>
+        <v>-26.08593171077314</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.43113542977101</v>
+        <v>-1.461051341764354</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9362071054452398</v>
+        <v>-0.9262831398912114</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-2.96686107609799</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.83402271179549</v>
+        <v>-25.75012723518571</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.345236830826446</v>
+        <v>-1.373018697456588</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.415385389452414</v>
+        <v>-1.411300590965795</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-3.684355106448537</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.85722227243103</v>
+        <v>-25.76308861499902</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.180771322528683</v>
+        <v>-1.203381729536344</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.716325062572329</v>
+        <v>-1.700666668373625</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-4.406578710261617</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.50370391109874</v>
+        <v>-25.41411328275281</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.154455793816813</v>
+        <v>-1.172208956470194</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.220679844944143</v>
+        <v>-2.200177298693999</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-5.11898602283447</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.94296058038761</v>
+        <v>-24.87111002239222</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.178545631045589</v>
+        <v>-1.191179703287855</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.320940700106081</v>
+        <v>-2.307167597516585</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-5.812697637228665</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.53546265443889</v>
+        <v>-24.45360957707242</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.347135214738496</v>
+        <v>-1.358106564519862</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.523033486770964</v>
+        <v>-2.52201228714931</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-6.490538823949046</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.88148903519183</v>
+        <v>-23.80669270905705</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.34595690748274</v>
+        <v>-1.357609057011877</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.704558265671496</v>
+        <v>-2.719156183340021</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-7.141117757198586</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.11760553358848</v>
+        <v>-23.04885785136658</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.329892651895943</v>
+        <v>-1.33639952640828</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.847696412640087</v>
+        <v>-2.845261244311526</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-7.770904637294341</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.72852847773806</v>
+        <v>-22.66927271507641</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.403785609134645</v>
+        <v>-1.413421544026155</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.165525156425829</v>
+        <v>-3.153755176171118</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-8.37690141356037</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.10626441597367</v>
+        <v>-22.02354724661964</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.309403197948641</v>
+        <v>-1.328059729498101</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.395975871045892</v>
+        <v>-3.381639799434202</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-8.951689117527449</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.61800007379433</v>
+        <v>-21.53578041194829</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.476212228455073</v>
+        <v>-1.496924251550684</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.627395416076242</v>
+        <v>-3.612771313802034</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-9.498424277179428</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.13278623817713</v>
+        <v>-21.09485783684464</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.381607248120761</v>
+        <v>-1.413342990209105</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.628036938915487</v>
+        <v>-3.616973943014228</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-10.00599467572135</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.32965201265428</v>
+        <v>-20.25794546999015</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.104757412229621</v>
+        <v>-1.140564860501742</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.743301573134043</v>
+        <v>-3.724867610732892</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-10.47497361479876</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.49060560043658</v>
+        <v>-19.44594775544346</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.113987485733038</v>
+        <v>-1.148092934635734</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.88041726079544</v>
+        <v>-3.865269466407563</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-10.90305697962173</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.06795988009998</v>
+        <v>-19.01978020564243</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.130942017913073</v>
+        <v>-1.170179649529726</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.109139791440394</v>
+        <v>-4.089514429480647</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-11.28425854424944</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.57085823350248</v>
+        <v>-18.53696226144525</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.121319175324405</v>
+        <v>-1.158802438360266</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.217295305215893</v>
+        <v>-4.204360110008268</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-11.62537583419243</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.1055446982047</v>
+        <v>-18.08840687378488</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.086035419165953</v>
+        <v>-1.122458205671635</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.343780042969809</v>
+        <v>-4.346555611172255</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-11.92234023397607</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.35174226978948</v>
+        <v>-17.32223221918423</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.174146617290769</v>
+        <v>-1.217102462914473</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.65841426486217</v>
+        <v>-4.648843791484868</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-12.17850891478152</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.51099385820235</v>
+        <v>-16.47474127163362</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.101654536456132</v>
+        <v>-1.141847906180231</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.600349901759114</v>
+        <v>-4.60395028504059</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-12.39671171942572</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.86217860627494</v>
+        <v>-15.85217608690386</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.037606990954408</v>
+        <v>-1.093890800870988</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.836731429566479</v>
+        <v>-4.83014600123709</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-12.57238149585846</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.99121315972911</v>
+        <v>-14.96260647801994</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.001616250442503</v>
+        <v>-1.049219863575019</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.955177493375574</v>
+        <v>-4.954339585993704</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-12.71380102433213</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.191823332819</v>
+        <v>-14.17122914044896</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.003357526720453</v>
+        <v>-1.04937697120912</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.142030839532689</v>
+        <v>-5.136126210951071</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-12.81564258430897</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.49468439110277</v>
+        <v>-13.44655708585658</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9473093782550235</v>
+        <v>-0.9967590060882229</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.046326105759671</v>
+        <v>-5.033809864242981</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-12.87955920110663</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.79242635897542</v>
+        <v>-12.75013822079665</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9382102277800238</v>
+        <v>-0.9946118684221797</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.124696630570243</v>
+        <v>-5.114785757319057</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-12.90616954993467</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.4239304031922</v>
+        <v>-12.38745524747515</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.136427692803756</v>
+        <v>-1.191415364739006</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.296912782150308</v>
+        <v>-5.2841085099711</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-12.89180958766193</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.73798538040565</v>
+        <v>-11.71432758917065</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.22353078360976</v>
+        <v>-1.281333300655981</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.773498790194821</v>
+        <v>-5.765054254861907</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-12.84374522633758</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.31608592133103</v>
+        <v>-11.29077849993797</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.234947271687745</v>
+        <v>-1.296742941100692</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.905809602713304</v>
+        <v>-5.898451728516254</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-12.75771183692763</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.5399087473593</v>
+        <v>-10.5180707862193</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.223347491369976</v>
+        <v>-1.285719222107959</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.364315140533392</v>
+        <v>-6.353055760089508</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-12.64006200402983</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.08137702493352</v>
+        <v>-10.04038502473608</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.421656602513601</v>
+        <v>-1.489815131107627</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.21448682681268</v>
+        <v>-6.193905726745486</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-12.49558797497772</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.505354976806103</v>
+        <v>-9.477874233141319</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.412426529010184</v>
+        <v>-1.478149889275649</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.441049127488749</v>
+        <v>-6.417286597831017</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-12.32459362013348</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.22006060558205</v>
+        <v>-9.186950171695324</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.49378209886867</v>
+        <v>-1.555211183802048</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.327421031125409</v>
+        <v>-6.296379181087676</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-12.13575996198176</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.600205527540529</v>
+        <v>-8.547980331504883</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.570057855224566</v>
+        <v>-1.642078613156901</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.725047360731471</v>
+        <v>-6.714154564767155</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-11.92851393730255</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.028477754745193</v>
+        <v>-7.973581728929836</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.491909899562303</v>
+        <v>-1.555250460710573</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.596088177740469</v>
+        <v>-6.577719676853528</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-11.70708638560721</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.562850004179205</v>
+        <v>-7.512837407323812</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.473803244732196</v>
+        <v>-1.549817155031257</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.666066536429495</v>
+        <v>-6.641191161030216</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-11.47857040304814</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.156124524098144</v>
+        <v>-7.088777718280305</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.617766206779816</v>
+        <v>-1.690336841431503</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.8398013951392</v>
+        <v>-6.819207202769165</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-11.24086316136173</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.725387760605356</v>
+        <v>-6.660148815545035</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.504085741205108</v>
+        <v>-1.573108361786688</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.006243841166063</v>
+        <v>-7.004960795487574</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-11.00202909971717</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.480692620493496</v>
+        <v>-6.422523518967707</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.665775681300425</v>
+        <v>-1.730006519041933</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.041593058838724</v>
+        <v>-7.033187800414336</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-10.76160996138007</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.351903637439436</v>
+        <v>-6.283889124176669</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.657095484516361</v>
+        <v>-1.720710984024308</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.100469144717966</v>
+        <v>-7.084810750519262</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-10.52103611721991</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.077187846911499</v>
+        <v>-6.008283057055494</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.597080368289888</v>
+        <v>-1.643780612526325</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.050770763130774</v>
+        <v>-7.046476487798688</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-10.28750995443246</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.984716911940387</v>
+        <v>-5.910457370222117</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.873288681341783</v>
+        <v>-1.928237076368507</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.081969720802607</v>
+        <v>-7.083972843137391</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-10.05568438800138</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.888017163151399</v>
+        <v>-5.804069317330251</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.825122099187073</v>
+        <v>-1.874466988597538</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.824928539110999</v>
+        <v>-6.821864940246035</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.833415306658436</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.628488443919863</v>
+        <v>-5.539094200116557</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.840584108843151</v>
+        <v>-1.886957045508545</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.726029283444601</v>
+        <v>-6.730978173918773</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.619579434839842</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.724271731509931</v>
+        <v>-5.622387430795619</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.921821847976062</v>
+        <v>-1.967906753978937</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.539594890978422</v>
+        <v>-6.551535071170075</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.411790715653426</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.796318674047949</v>
+        <v>-5.693963050431335</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.00986758458667</v>
+        <v>-2.05507530629915</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.374435490630047</v>
+        <v>-6.383901225584615</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.213001517801448</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.996002476989955</v>
+        <v>-5.898438636213412</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.871351020521208</v>
+        <v>-1.916113603937069</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.264185208399872</v>
+        <v>-6.290605475534475</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.015152581659164</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.152167465286063</v>
+        <v>-6.046434027536284</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.135514414958715</v>
+        <v>-2.167970233703354</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.120772123071604</v>
+        <v>-6.144914329511748</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-8.818347301242017</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.631947995223957</v>
+        <v>-6.524473281196228</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.112249392808967</v>
+        <v>-2.155951499694649</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.880711658165716</v>
+        <v>-5.914110122714958</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-8.618593944111574</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.088254026166636</v>
+        <v>-6.995874737315416</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.166019480579936</v>
+        <v>-2.206134296486985</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.939496097925065</v>
+        <v>-5.966112749602295</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-8.406709685958123</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.573624969417946</v>
+        <v>-7.480080465613813</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.114082315206809</v>
+        <v>-2.160062482786951</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.565998882456304</v>
+        <v>-5.596071902083749</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-8.18093354138079</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.966132208612894</v>
+        <v>-7.880822763296207</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.154851746255944</v>
+        <v>-2.186338734590295</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.404675526840555</v>
+        <v>-5.434879469496417</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-7.93074974736308</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.347877574871942</v>
+        <v>-8.255118609238313</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.419132971419026</v>
+        <v>-2.454704758239996</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.013097841147371</v>
+        <v>-5.03949192367629</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-7.652827946521817</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.250133625209495</v>
+        <v>-9.166578548473598</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.342189507618202</v>
+        <v>-2.381597339171798</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.00346190625586</v>
+        <v>-5.039007508471147</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-7.34546438063187</v>
       </c>
       <c r="E82" t="n">
-        <v>-9.979204693556694</v>
+        <v>-9.907956381492021</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.43137427457604</v>
+        <v>-2.471947321082549</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.833877307546983</v>
+        <v>-4.868886125345758</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-7.001644018850707</v>
       </c>
       <c r="E83" t="n">
-        <v>-10.73109564575702</v>
+        <v>-10.66584360839386</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.50661573900744</v>
+        <v>-2.526607685446756</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.506556644200989</v>
+        <v>-4.544511230139153</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-6.627879291094001</v>
       </c>
       <c r="E84" t="n">
-        <v>-11.87309794573226</v>
+        <v>-11.80343380231144</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.584397110190134</v>
+        <v>-2.613003791899306</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.399985299069339</v>
+        <v>-4.440597622484373</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-6.222894851698705</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.68565862930115</v>
+        <v>-12.61935920771065</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.727443611038833</v>
+        <v>-2.755736077479804</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.03303423502144</v>
+        <v>-4.079079864115791</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-5.79216024462305</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.72141689171578</v>
+        <v>-13.64861059561294</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.82427428285624</v>
+        <v>-2.850890934533469</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.722249150164547</v>
+        <v>-3.754246738309726</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-5.344524552770868</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.71843503002175</v>
+        <v>-14.64729145637981</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.860225746459619</v>
+        <v>-2.883556230123575</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.268509210578847</v>
+        <v>-3.308846595634205</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-4.882034948575604</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.07534748114392</v>
+        <v>-16.01986230170068</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.759964891297681</v>
+        <v>-2.795903262598219</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.019048472232598</v>
+        <v>-3.05797188858105</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-4.418848400645758</v>
       </c>
       <c r="E89" t="n">
-        <v>-17.50382245959897</v>
+        <v>-17.43824311466476</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.005236092734577</v>
+        <v>-3.028134530404756</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.754034078110379</v>
+        <v>-2.784643882154335</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.960807760186116</v>
       </c>
       <c r="E90" t="n">
-        <v>-18.97338108437135</v>
+        <v>-18.91002743092024</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.200900558704173</v>
+        <v>-3.228224194734856</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.632288753985168</v>
+        <v>-2.654872976387146</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.515156914623093</v>
       </c>
       <c r="E91" t="n">
-        <v>-20.59405106854294</v>
+        <v>-20.54392064096197</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.406462805622114</v>
+        <v>-3.443265268910206</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.697671714376749</v>
+        <v>-2.709350048511568</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.093002094864338</v>
       </c>
       <c r="E92" t="n">
-        <v>-22.07246009003633</v>
+        <v>-22.01806157172896</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.426651136604056</v>
+        <v>-3.444286468531861</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.582917679969019</v>
+        <v>-2.605017487165853</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-2.696178548282519</v>
       </c>
       <c r="E93" t="n">
-        <v>-24.06474199806747</v>
+        <v>-24.0093091878356</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.625706509009659</v>
+        <v>-3.67069166157383</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.556209382171898</v>
+        <v>-2.573687606465603</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.333484786261914</v>
       </c>
       <c r="E94" t="n">
-        <v>-26.23243457957205</v>
+        <v>-26.18176736757457</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.433105641905027</v>
+        <v>-3.473194273206392</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.711078232486676</v>
+        <v>-2.733989762459696</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.007162804737914</v>
       </c>
       <c r="E95" t="n">
-        <v>-28.40859788101524</v>
+        <v>-28.35541694687214</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.930992826673028</v>
+        <v>-3.980939962014213</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.937509610134328</v>
+        <v>-2.946975345088896</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-1.713740055867643</v>
       </c>
       <c r="E96" t="n">
-        <v>-30.45838118312724</v>
+        <v>-30.39282802279871</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.911943526038316</v>
+        <v>-3.96203467671076</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.270800363576149</v>
+        <v>-3.280632683010285</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-1.455968678674108</v>
       </c>
       <c r="E97" t="n">
-        <v>-32.72952914168714</v>
+        <v>-32.65563618444844</v>
       </c>
       <c r="F97" t="n">
-        <v>-4.072442066575036</v>
+        <v>-4.111352390620646</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.354970778545606</v>
+        <v>-3.364855467191109</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-1.222752608296467</v>
       </c>
       <c r="E98" t="n">
-        <v>-35.22731795474017</v>
+        <v>-35.16219684040542</v>
       </c>
       <c r="F98" t="n">
-        <v>-4.346241395904054</v>
+        <v>-4.395193516229267</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.782683220081954</v>
+        <v>-3.784332850240012</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-1.011855001961041</v>
       </c>
       <c r="E99" t="n">
-        <v>-37.62614205061258</v>
+        <v>-37.56456895034795</v>
       </c>
       <c r="F99" t="n">
-        <v>-4.207462985781757</v>
+        <v>-4.245129541057403</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.16994044583737</v>
+        <v>-4.18275781031942</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.8101407011275221</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.24694614116647</v>
+        <v>-40.18885559345772</v>
       </c>
       <c r="F100" t="n">
-        <v>-4.325254434448766</v>
+        <v>-4.367123618936606</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.420579491439374</v>
+        <v>-4.433540871252682</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.6138569526195456</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.68572794531183</v>
+        <v>-42.63092356561636</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.480332761609012</v>
+        <v>-4.522319776822427</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.928010964978993</v>
+        <v>-4.948225480566617</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.404246166534218</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.05460994458522</v>
+        <v>-44.99422824387918</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.570970774182281</v>
+        <v>-4.609763267502315</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.13946474817571</v>
+        <v>-5.145735961236897</v>
       </c>
     </row>
   </sheetData>
